--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/nikhilesh_mishra_uipath_com/Documents/Documents/UiPath/ImageClassification_Email/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gfi1-my.sharepoint.com/personal/abdelhak_saket_inetum_com/Documents/Bureau/Test Uipath/ImageClassificationModelZIP/ImageClassification_Email/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{7AD72D16-8B99-41E5-BCCF-4257BCDF806E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A526B9D-E9DD-4C4C-925C-010007250923}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{7AD72D16-8B99-41E5-BCCF-4257BCDF806E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{668123D1-148B-4DB7-93B1-C609E1BF6FFF}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -127,9 +127,6 @@
     <t>outlookAccount</t>
   </si>
   <si>
-    <t>nikhilesh.mishra@uipath.com</t>
-  </si>
-  <si>
     <t>MailFolder</t>
   </si>
   <si>
@@ -179,6 +176,9 @@
   </si>
   <si>
     <t>bus,car,bike</t>
+  </si>
+  <si>
+    <t>abdelhak.saket@inetum.com</t>
   </si>
 </sst>
 </file>
@@ -238,10 +238,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -250,7 +250,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -266,8 +266,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -566,15 +570,15 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.54296875" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.453125" customWidth="1"/>
-    <col min="4" max="26" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="2" max="2" width="131.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -623,7 +627,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="29">
+    <row r="4" spans="1:26" ht="28.8">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -641,68 +645,68 @@
         <v>32</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
         <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
         <v>40</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15">
         <v>0.4</v>
@@ -710,10 +714,10 @@
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
         <v>49</v>
-      </c>
-      <c r="B16" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -1714,12 +1718,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.453125" customWidth="1"/>
-    <col min="4" max="26" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="75.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1756,7 +1760,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="29">
+    <row r="2" spans="1:26" ht="28.8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2826,12 +2830,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.81640625" customWidth="1"/>
-    <col min="2" max="2" width="30.1796875" customWidth="1"/>
-    <col min="3" max="3" width="60.26953125" customWidth="1"/>
-    <col min="4" max="26" width="65.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.77734375" customWidth="1"/>
+    <col min="2" max="2" width="30.21875" customWidth="1"/>
+    <col min="3" max="3" width="60.21875" customWidth="1"/>
+    <col min="4" max="26" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
